--- a/biology/Botanique/Fritillaria_persica/Fritillaria_persica.xlsx
+++ b/biology/Botanique/Fritillaria_persica/Fritillaria_persica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritillaria persica L., ou Fritillaire de Perse, (dite aussi parfois Fritillaire du Liban) est une espèce de plante de la famille des Liliaceae. 
 Dès 1573, en Occident, la sombre couleur de la Fritillaire de Perse (Fritillaria persica) avait attiré l'attention des amateurs de jardins. Parmi la centaine d'espèces de Fritillaires connues, elle est sans doute l'une des plus originales. Vraisemblablement originaire de Perse, on la trouve de la Jordanie à l'Iran. Elle se plait dans les rocailles sèches entre 500 et 1 200 mètres d'altitude et ne dédaigne pas les bordures de chemins ou de champs. On en connaît des formes rares à fleurs verdâtres.
